--- a/CashFlow/VRTX_cashflow.xlsx
+++ b/CashFlow/VRTX_cashflow.xlsx
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2108000000.0</v>
+        <v>2761138000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2711000000.0</v>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>111528000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>109515000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>501192000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>486797000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-98145000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-223444000.0</v>
@@ -763,25 +757,23 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>-127349000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>932000000.0</v>
+        <v>-132014000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>819000000.0</v>
+        <v>-113674000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>553894000.0</v>
+        <v>-103259000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>322859000.0</v>
+        <v>-78358000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>122720000.0</v>
+        <v>-64047000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-52784000.0</v>
@@ -896,10 +888,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>26347000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>51276000.0</v>
@@ -1025,25 +1015,23 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>516983000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>51276000.0</v>
+        <v>465000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5578000.0</v>
+        <v>398000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>145853000.0</v>
+        <v>431731000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>286688000.0</v>
+        <v>471978000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>245124000.0</v>
+        <v>343699000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>390807000.0</v>
@@ -1359,10 +1347,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>61890000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>127530000.0</v>
@@ -1488,10 +1474,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>3358862000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3253505000.0</v>
@@ -1617,10 +1601,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-311274000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-259798000.0</v>
@@ -1941,10 +1923,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>304687000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>359186000.0</v>
@@ -2217,10 +2197,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-6587000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>99388000.0</v>
@@ -2346,10 +2324,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-33171000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-29024000.0</v>
@@ -2481,10 +2457,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-463154000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-274190000.0</v>
@@ -2610,10 +2584,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-130568000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7389000.0</v>
@@ -2743,10 +2715,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-664505000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-505281000.0</v>
@@ -2872,10 +2842,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>23173000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20552000.0</v>
@@ -3001,10 +2969,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>2710943000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2868164000.0</v>
@@ -3130,10 +3096,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>5988845000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3120681000.0</v>
@@ -3259,10 +3223,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>8699788000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5988845000.0</v>
@@ -3388,10 +3350,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>428929000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>429461000.0</v>
@@ -3644,10 +3604,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>-15890000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-54454000.0</v>
@@ -3773,10 +3731,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>304687000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>359186000.0</v>
@@ -3902,10 +3858,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-463154000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-274190000.0</v>
